--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>163.9108346666667</v>
+        <v>9.861094666666666</v>
       </c>
       <c r="H2">
-        <v>491.732504</v>
+        <v>29.583284</v>
       </c>
       <c r="I2">
-        <v>0.8426759240348239</v>
+        <v>0.243709096397741</v>
       </c>
       <c r="J2">
-        <v>0.8426759240348242</v>
+        <v>0.2437090963977409</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1743356666666667</v>
+        <v>0.3822983333333334</v>
       </c>
       <c r="N2">
-        <v>0.523007</v>
+        <v>1.146895</v>
       </c>
       <c r="O2">
-        <v>0.02303006925000699</v>
+        <v>0.04915201160487953</v>
       </c>
       <c r="P2">
-        <v>0.02303006925000699</v>
+        <v>0.04915201160487953</v>
       </c>
       <c r="Q2">
-        <v>28.57550463550311</v>
+        <v>3.769880055908889</v>
       </c>
       <c r="R2">
-        <v>257.179541719528</v>
+        <v>33.92892050318</v>
       </c>
       <c r="S2">
-        <v>0.01940688488583563</v>
+        <v>0.01197879233435647</v>
       </c>
       <c r="T2">
-        <v>0.01940688488583563</v>
+        <v>0.01197879233435647</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>163.9108346666667</v>
+        <v>9.861094666666666</v>
       </c>
       <c r="H3">
-        <v>491.732504</v>
+        <v>29.583284</v>
       </c>
       <c r="I3">
-        <v>0.8426759240348239</v>
+        <v>0.243709096397741</v>
       </c>
       <c r="J3">
-        <v>0.8426759240348242</v>
+        <v>0.2437090963977409</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.204147000000001</v>
       </c>
       <c r="O3">
-        <v>0.3172271198994089</v>
+        <v>0.3087451919724631</v>
       </c>
       <c r="P3">
-        <v>0.3172271198994089</v>
+        <v>0.3087451919724631</v>
       </c>
       <c r="Q3">
-        <v>393.6125826104543</v>
+        <v>23.68025851986089</v>
       </c>
       <c r="R3">
-        <v>3542.513243494088</v>
+        <v>213.122326678748</v>
       </c>
       <c r="S3">
-        <v>0.2673196563901403</v>
+        <v>0.07524401175275607</v>
       </c>
       <c r="T3">
-        <v>0.2673196563901403</v>
+        <v>0.07524401175275605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>163.9108346666667</v>
+        <v>9.861094666666666</v>
       </c>
       <c r="H4">
-        <v>491.732504</v>
+        <v>29.583284</v>
       </c>
       <c r="I4">
-        <v>0.8426759240348239</v>
+        <v>0.243709096397741</v>
       </c>
       <c r="J4">
-        <v>0.8426759240348242</v>
+        <v>0.2437090963977409</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>14.982591</v>
       </c>
       <c r="O4">
-        <v>0.6597428108505842</v>
+        <v>0.6421027964226573</v>
       </c>
       <c r="P4">
-        <v>0.6597428108505842</v>
+        <v>0.6421027964226573</v>
       </c>
       <c r="Q4">
-        <v>818.6029987597626</v>
+        <v>49.24824940098267</v>
       </c>
       <c r="R4">
-        <v>7367.426988837864</v>
+        <v>443.2342446088439</v>
       </c>
       <c r="S4">
-        <v>0.5559493827588481</v>
+        <v>0.1564862923106284</v>
       </c>
       <c r="T4">
-        <v>0.5559493827588482</v>
+        <v>0.1564862923106284</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>88.060289</v>
       </c>
       <c r="I5">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154019</v>
       </c>
       <c r="J5">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154018</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1743356666666667</v>
+        <v>0.3822983333333334</v>
       </c>
       <c r="N5">
-        <v>0.523007</v>
+        <v>1.146895</v>
       </c>
       <c r="O5">
-        <v>0.02303006925000699</v>
+        <v>0.04915201160487953</v>
       </c>
       <c r="P5">
-        <v>0.02303006925000699</v>
+        <v>0.04915201160487953</v>
       </c>
       <c r="Q5">
-        <v>5.117349729891444</v>
+        <v>11.22176723918389</v>
       </c>
       <c r="R5">
-        <v>46.056147569023</v>
+        <v>100.995905152655</v>
       </c>
       <c r="S5">
-        <v>0.003475417788604061</v>
+        <v>0.0356571608085977</v>
       </c>
       <c r="T5">
-        <v>0.003475417788604061</v>
+        <v>0.03565716080859769</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>88.060289</v>
       </c>
       <c r="I6">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154019</v>
       </c>
       <c r="J6">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154018</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.204147000000001</v>
       </c>
       <c r="O6">
-        <v>0.3172271198994089</v>
+        <v>0.3087451919724631</v>
       </c>
       <c r="P6">
-        <v>0.3172271198994089</v>
+        <v>0.3087451919724631</v>
       </c>
       <c r="Q6">
         <v>70.4888074242759</v>
@@ -818,10 +818,10 @@
         <v>634.3992668184831</v>
       </c>
       <c r="S6">
-        <v>0.04787205646486296</v>
+        <v>0.2239781567342928</v>
       </c>
       <c r="T6">
-        <v>0.04787205646486296</v>
+        <v>0.2239781567342927</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>88.060289</v>
       </c>
       <c r="I7">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154019</v>
       </c>
       <c r="J7">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154018</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>14.982591</v>
       </c>
       <c r="O7">
-        <v>0.6597428108505842</v>
+        <v>0.6421027964226573</v>
       </c>
       <c r="P7">
-        <v>0.6597428108505842</v>
+        <v>0.6421027964226573</v>
       </c>
       <c r="Q7">
         <v>146.5968103809777</v>
@@ -880,10 +880,10 @@
         <v>1319.371293428799</v>
       </c>
       <c r="S7">
-        <v>0.09956035632559239</v>
+        <v>0.4658113049725114</v>
       </c>
       <c r="T7">
-        <v>0.09956035632559239</v>
+        <v>0.4658113049725114</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>3.744116</v>
       </c>
       <c r="I8">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685718</v>
       </c>
       <c r="J8">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685716</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1743356666666667</v>
+        <v>0.3822983333333334</v>
       </c>
       <c r="N8">
-        <v>0.523007</v>
+        <v>1.146895</v>
       </c>
       <c r="O8">
-        <v>0.02303006925000699</v>
+        <v>0.04915201160487953</v>
       </c>
       <c r="P8">
-        <v>0.02303006925000699</v>
+        <v>0.04915201160487953</v>
       </c>
       <c r="Q8">
-        <v>0.2175776529791111</v>
+        <v>0.4771231022022223</v>
       </c>
       <c r="R8">
-        <v>1.958198876812</v>
+        <v>4.29410791982</v>
       </c>
       <c r="S8">
-        <v>0.0001477665755673034</v>
+        <v>0.00151605846192537</v>
       </c>
       <c r="T8">
-        <v>0.0001477665755673035</v>
+        <v>0.00151605846192537</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>3.744116</v>
       </c>
       <c r="I9">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685718</v>
       </c>
       <c r="J9">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685716</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>7.204147000000001</v>
       </c>
       <c r="O9">
-        <v>0.3172271198994089</v>
+        <v>0.3087451919724631</v>
       </c>
       <c r="P9">
-        <v>0.3172271198994089</v>
+        <v>0.3087451919724631</v>
       </c>
       <c r="Q9">
         <v>2.997018005450223</v>
@@ -1004,10 +1004,10 @@
         <v>26.973162049052</v>
       </c>
       <c r="S9">
-        <v>0.002035407044405644</v>
+        <v>0.009523023485414332</v>
       </c>
       <c r="T9">
-        <v>0.002035407044405644</v>
+        <v>0.009523023485414329</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>3.744116</v>
       </c>
       <c r="I10">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685718</v>
       </c>
       <c r="J10">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685716</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>14.982591</v>
       </c>
       <c r="O10">
-        <v>0.6597428108505842</v>
+        <v>0.6421027964226573</v>
       </c>
       <c r="P10">
-        <v>0.6597428108505842</v>
+        <v>0.6421027964226573</v>
       </c>
       <c r="Q10">
         <v>6.232950964950667</v>
@@ -1066,10 +1066,10 @@
         <v>56.09655868455599</v>
       </c>
       <c r="S10">
-        <v>0.004233071766143666</v>
+        <v>0.01980519913951747</v>
       </c>
       <c r="T10">
-        <v>0.004233071766143667</v>
+        <v>0.01980519913951747</v>
       </c>
     </row>
   </sheetData>
